--- a/MTO; SKID MEDICION.xlsx
+++ b/MTO; SKID MEDICION.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,10 +426,10 @@
         <v>146.8656</v>
       </c>
       <c r="F2">
-        <v>468046.005192</v>
+        <v>468046.00519200007</v>
       </c>
       <c r="G2">
-        <v>147268.11154587122</v>
+        <v>147268.1115458712</v>
       </c>
       <c r="H2">
         <v>71699.4921888</v>
@@ -545,7 +545,7 @@
         <v>226631.801648</v>
       </c>
       <c r="G6">
-        <v>74968.29999999999</v>
+        <v>74968.3</v>
       </c>
       <c r="H6">
         <v>37083.520079999995</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" t="str">
         <v>U.N</v>
@@ -597,82 +597,82 @@
         <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E8">
-        <v>1.4000000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="F8">
-        <v>4107.692086620001</v>
+        <v>1339.37476134</v>
       </c>
       <c r="G8">
-        <v>1383.5</v>
+        <v>414.7</v>
       </c>
       <c r="H8">
-        <v>683.4771999999999</v>
+        <v>214.80712</v>
       </c>
       <c r="I8">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="str">
         <v>U.N</v>
       </c>
       <c r="C9" t="str">
-        <v>1/2"</v>
+        <v>4"x3/4"</v>
       </c>
       <c r="D9" t="str">
-        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
+        <v>THREADOLET, 3000#, MSS SP-97</v>
       </c>
       <c r="E9">
-        <v>0.07</v>
+        <v>0.9600000000000001</v>
       </c>
       <c r="F9">
-        <v>23.3065</v>
+        <v>2768.3173252799997</v>
       </c>
       <c r="G9">
-        <v>90.2034</v>
+        <v>968.8</v>
       </c>
       <c r="H9">
-        <v>22.709750000000003</v>
+        <v>468.6700799999999</v>
       </c>
       <c r="I9">
-        <v>0.07</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="str">
         <v>U.N</v>
       </c>
       <c r="C10" t="str">
-        <v>4"</v>
+        <v>1/2"</v>
       </c>
       <c r="D10" t="str">
-        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
+        <v>PLUG, HEX HEAD, NPT, 3000#, B16.11, A105</v>
       </c>
       <c r="E10">
-        <v>74.8</v>
+        <v>0.07</v>
       </c>
       <c r="F10">
-        <v>435976.43991879997</v>
+        <v>23.3065</v>
       </c>
       <c r="G10">
-        <v>812794.4094159999</v>
+        <v>90.2034</v>
       </c>
       <c r="H10">
-        <v>26714.819999999996</v>
+        <v>22.709750000000003</v>
       </c>
       <c r="I10">
-        <v>18.7</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B11" t="str">
         <v>U.N</v>
@@ -681,68 +681,68 @@
         <v>4"</v>
       </c>
       <c r="D11" t="str">
-        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
+        <v>FLANGE BLIND, RF, #600, B16.5, A105</v>
       </c>
       <c r="E11">
-        <v>396.27000000000004</v>
+        <v>74.8</v>
       </c>
       <c r="F11">
-        <v>2094087.6561366904</v>
+        <v>435976.4399188</v>
       </c>
       <c r="G11">
-        <v>3952921.0410366007</v>
+        <v>812794.4094159999</v>
       </c>
       <c r="H11">
-        <v>146473.5820200001</v>
+        <v>26714.819999999996</v>
       </c>
       <c r="I11">
-        <v>18.87</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="B12" t="str">
         <v>U.N</v>
       </c>
       <c r="C12" t="str">
-        <v>7/8" x 146</v>
+        <v>4"</v>
       </c>
       <c r="D12" t="str">
-        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
+        <v>FLANGE WN, RF, #600, SCH 80, B16.5, A105</v>
       </c>
       <c r="E12">
-        <v>112.8</v>
+        <v>396.27000000000004</v>
       </c>
       <c r="F12">
-        <v>NaN</v>
+        <v>2094087.65613669</v>
       </c>
       <c r="G12">
-        <v>NaN</v>
+        <v>3952921.0410366002</v>
       </c>
       <c r="H12">
-        <v>NaN</v>
+        <v>146473.58202000006</v>
       </c>
       <c r="I12">
-        <v>0.705</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="B13" t="str">
         <v>U.N</v>
       </c>
       <c r="C13" t="str">
-        <v>4"</v>
+        <v>7/8" x 146</v>
       </c>
       <c r="D13" t="str">
-        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
+        <v>STUD BOLT SET A193 GR B7/ A194 GR 2H</v>
       </c>
       <c r="E13">
-        <v>6.400000000000001</v>
+        <v>112.8</v>
       </c>
       <c r="F13">
         <v>NaN</v>
@@ -754,12 +754,12 @@
         <v>NaN</v>
       </c>
       <c r="I13">
-        <v>0.32000000000000006</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B14" t="str">
         <v>U.N</v>
@@ -768,27 +768,27 @@
         <v>4"</v>
       </c>
       <c r="D14" t="str">
-        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
+        <v xml:space="preserve">GASKET, SWG, 1/8", RF, #600, GRAPHITE </v>
       </c>
       <c r="E14">
-        <v>340</v>
+        <v>6.400000000000001</v>
       </c>
       <c r="F14">
-        <v>1967062.598472</v>
+        <v>NaN</v>
       </c>
       <c r="G14">
-        <v>3636567.1788</v>
+        <v>NaN</v>
       </c>
       <c r="H14">
-        <v>121430.99999999999</v>
+        <v>NaN</v>
       </c>
       <c r="I14">
-        <v>68</v>
+        <v>0.32000000000000006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="str">
         <v>U.N</v>
@@ -797,94 +797,94 @@
         <v>4"</v>
       </c>
       <c r="D15" t="str">
-        <v>CHECK VALVE SWING, RF, #600, B16.10, A216 GR WCB</v>
+        <v>BALL VALVE, RF, #600, FB, FS, B16.10, A216 GR WCB</v>
       </c>
       <c r="E15">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="F15">
-        <v>1395888.017442</v>
+        <v>1967062.598472</v>
       </c>
       <c r="G15">
-        <v>2969237.9934799997</v>
+        <v>3636567.1788</v>
       </c>
       <c r="H15">
-        <v>87144.59999999999</v>
+        <v>121430.99999999999</v>
       </c>
       <c r="I15">
-        <v>122</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" t="str">
         <v>U.N</v>
       </c>
       <c r="C16" t="str">
-        <v>1/2"</v>
+        <v>4"</v>
       </c>
       <c r="D16" t="str">
-        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
+        <v>CHECK VALVE SWING, RF, #600, B16.10, A216 GR WCB</v>
       </c>
       <c r="E16">
-        <v>2.8</v>
+        <v>244</v>
       </c>
       <c r="F16">
-        <v>932.2599999999999</v>
+        <v>1395888.017442</v>
       </c>
       <c r="G16">
-        <v>3453.0944</v>
+        <v>2969237.9934799997</v>
       </c>
       <c r="H16">
-        <v>908.39</v>
+        <v>87144.59999999999</v>
       </c>
       <c r="I16">
-        <v>2.8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B17" t="str">
         <v>U.N</v>
       </c>
       <c r="C17" t="str">
-        <v>4"</v>
+        <v>1/2"</v>
       </c>
       <c r="D17" t="str">
-        <v>BUTTWELD  SCH 80</v>
+        <v>FLOATING BALL VALVE, NPT, 2500#, A216 GR WCB</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="F17">
-        <v>NaN</v>
+        <v>932.2599999999999</v>
       </c>
       <c r="G17">
-        <v>NaN</v>
+        <v>3453.0944</v>
       </c>
       <c r="H17">
-        <v>NaN</v>
+        <v>908.39</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B18" t="str">
         <v>U.N</v>
       </c>
       <c r="C18" t="str">
-        <v>1/2"</v>
+        <v>4"</v>
       </c>
       <c r="D18" t="str">
-        <v>SOCKETWELD  SCH 160</v>
+        <v>BUTTWELD  SCH 80</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="str">
         <v>U.N</v>
@@ -913,19 +913,19 @@
         <v>1/2"</v>
       </c>
       <c r="D19" t="str">
-        <v>TAPWELD 3000#</v>
+        <v>SOCKETWELD  SCH 160</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1389.3172613400002</v>
+        <v>NaN</v>
       </c>
       <c r="G19">
-        <v>586.075</v>
+        <v>NaN</v>
       </c>
       <c r="H19">
-        <v>288.03682</v>
+        <v>NaN</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="str">
         <v>U.N</v>
       </c>
       <c r="C20" t="str">
-        <v>3/4"</v>
+        <v>1/2"</v>
       </c>
       <c r="D20" t="str">
         <v>TAPWELD 3000#</v>
@@ -948,13 +948,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2768.3173252799997</v>
+        <v>1389.3172613400002</v>
       </c>
       <c r="G20">
-        <v>968.8</v>
+        <v>586.075</v>
       </c>
       <c r="H20">
-        <v>468.6700799999999</v>
+        <v>288.03682</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -962,36 +962,65 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" t="str">
         <v>U.N</v>
       </c>
       <c r="C21" t="str">
-        <v>1/2"</v>
+        <v>3/4"</v>
       </c>
       <c r="D21" t="str">
-        <v>THREAD  SCH 160</v>
+        <v>TAPWELD 3000#</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>NaN</v>
+        <v>2768.3173252799997</v>
       </c>
       <c r="G21">
-        <v>NaN</v>
+        <v>968.8000000000001</v>
       </c>
       <c r="H21">
-        <v>NaN</v>
+        <v>468.6700799999999</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="str">
+        <v>U.N</v>
+      </c>
+      <c r="C22" t="str">
+        <v>1/2"</v>
+      </c>
+      <c r="D22" t="str">
+        <v>THREAD  SCH 160</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>NaN</v>
+      </c>
+      <c r="G22">
+        <v>NaN</v>
+      </c>
+      <c r="H22">
+        <v>NaN</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I22"/>
   </ignoredErrors>
 </worksheet>
 </file>